--- a/Results/MVA2.xlsx
+++ b/Results/MVA2.xlsx
@@ -805,58 +805,58 @@
         <v>0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007717403808963954</v>
+        <v>0.0009478543555522321</v>
       </c>
       <c r="D5" t="n">
-        <v>8.139342496670722e-05</v>
+        <v>0.0004986213691809577</v>
       </c>
       <c r="E5" t="n">
-        <v>171.8</v>
+        <v>173</v>
       </c>
       <c r="F5" t="n">
-        <v>10.09730437074943</v>
+        <v>11.32352516764202</v>
       </c>
       <c r="G5" t="n">
-        <v>121.8</v>
+        <v>122.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4216370213557839</v>
+        <v>1.58113883008419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09942857142857144</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003441934868210464</v>
+        <v>0.001290725575578928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004468563536043622</v>
+        <v>0.0006238237590348447</v>
       </c>
       <c r="L5" t="n">
-        <v>4.748798451998693e-05</v>
+        <v>0.0004873244915953343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003248840272920333</v>
+        <v>0.0003240305965173876</v>
       </c>
       <c r="N5" t="n">
-        <v>7.645927753155456e-05</v>
+        <v>0.0001238970708380971</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2307139953935781</v>
+        <v>0.2214534658577514</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08283839458568765</v>
+        <v>0.07298723075710495</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="R5" t="n">
-        <v>3.155242550986462</v>
+        <v>3.583914681524163</v>
       </c>
       <c r="S5" t="n">
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
       <c r="T5" t="n">
-        <v>3.155242550986462</v>
+        <v>3.583914681524163</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.370320319406298</v>
+        <v>1.135292424395093</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.619060645008013</v>
+        <v>3.585071272813208</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2007360233181684</v>
+        <v>0.1457507825454326</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.37052720364755</v>
+        <v>13.46971912600012</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -889,46 +889,46 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9660917830792959</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.491724053724054</v>
+        <v>1.597210180623974</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.3039630912998613</v>
+        <v>0.308762625113057</v>
       </c>
       <c r="AI5" t="n">
-        <v>33.8</v>
+        <v>38.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.37052720364755</v>
+        <v>13.46971912600012</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.828782229912694</v>
+        <v>2</v>
       </c>
       <c r="AM5" t="n">
         <v>3.6</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.173787790777267</v>
+        <v>2.065591117977289</v>
       </c>
       <c r="AO5" t="n">
-        <v>43.38246010357899</v>
+        <v>38.18065602462806</v>
       </c>
       <c r="AP5" t="n">
-        <v>25.82300835550879</v>
+        <v>31.28994264319454</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.080123449734643</v>
+        <v>1.888562063228706</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -939,82 +939,82 @@
         <v>0.33</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008906062191890149</v>
+        <v>0.001108435890109523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000192797259994075</v>
+        <v>0.0003827860952134529</v>
       </c>
       <c r="E6" t="n">
-        <v>174.9</v>
+        <v>169.2</v>
       </c>
       <c r="F6" t="n">
-        <v>8.646772037394456</v>
+        <v>12.56803706055785</v>
       </c>
       <c r="G6" t="n">
-        <v>398.8</v>
+        <v>392.1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.685675570881488</v>
+        <v>12.67061342021153</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3255510204081632</v>
+        <v>0.3200816326530612</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003825041282352238</v>
+        <v>0.01034335789405022</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000466178026342336</v>
+        <v>0.0006417799425333856</v>
       </c>
       <c r="L6" t="n">
-        <v>8.991115600597112e-05</v>
+        <v>0.0003086881225562032</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0004244281928466789</v>
+        <v>0.0004666559475761369</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00011143492976778</v>
+        <v>0.0001682364112497308</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7478290457502451</v>
+        <v>0.7036737554785479</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07872332401839416</v>
+        <v>0.1358807524621866</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.932183566158592</v>
+        <v>2.616188916046478</v>
       </c>
       <c r="S6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.932183566158592</v>
+        <v>2.616188916046478</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.449137674618944</v>
       </c>
       <c r="W6" t="n">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="X6" t="n">
-        <v>1.370320319406298</v>
+        <v>2.514402955419481</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.632373737373737</v>
+        <v>8.181428571428572</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.368864818865899</v>
+        <v>2.169002404003146</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.3</v>
+        <v>59</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.137900702315394</v>
+        <v>3.620926830400072</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -1023,46 +1023,46 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6992058987801011</v>
+        <v>0.7378647873726218</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.41234126984127</v>
+        <v>1.352171717171717</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2961299874577705</v>
+        <v>0.382995563694071</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.137900702315394</v>
+        <v>3.620926830400072</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.110818693198342</v>
+        <v>2.250925735484551</v>
       </c>
       <c r="AM6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.816496580927726</v>
+        <v>0.5676462121975467</v>
       </c>
       <c r="AO6" t="n">
-        <v>26.24561111111111</v>
+        <v>33.96400000000001</v>
       </c>
       <c r="AP6" t="n">
-        <v>18.78478275077535</v>
+        <v>26.33417011328734</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.7378647873726218</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1073,124 +1073,124 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009073675996030528</v>
+        <v>0.0009338922280790314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002528254224338234</v>
+        <v>0.0001375155734726735</v>
       </c>
       <c r="E7" t="n">
-        <v>172.7</v>
+        <v>178</v>
       </c>
       <c r="F7" t="n">
-        <v>7.36432843736164</v>
+        <v>10.02219758558194</v>
       </c>
       <c r="G7" t="n">
-        <v>571.4</v>
+        <v>588.6</v>
       </c>
       <c r="H7" t="n">
-        <v>49.94485848301994</v>
+        <v>34.65127863602022</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4664489795918367</v>
+        <v>0.4804897959183673</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04077131304736321</v>
+        <v>0.02828675807022058</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004756681765563937</v>
+        <v>0.0004999056105563227</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001551800905993538</v>
+        <v>8.999493230902521e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0004316994230466591</v>
+        <v>0.0004339866175227088</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000101217411172774</v>
+        <v>5.634126794869448e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6881998459464413</v>
+        <v>0.7828024642993037</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1296605255635742</v>
+        <v>0.1231164959176237</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.549193338482967</v>
+        <v>1.505545305418162</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.549193338482967</v>
+        <v>1.505545305418162</v>
       </c>
       <c r="U7" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>3.533962208186286</v>
+        <v>3.197221015541813</v>
       </c>
       <c r="W7" t="n">
-        <v>28.5</v>
+        <v>30.8</v>
       </c>
       <c r="X7" t="n">
-        <v>3.689323936863109</v>
+        <v>3.0840089349921</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.55833333333333</v>
+        <v>13.78928571428571</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.425361565127374</v>
+        <v>3.73641003533191</v>
       </c>
       <c r="AA7" t="n">
-        <v>54.5</v>
+        <v>55.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.273030282830976</v>
+        <v>3.368151487751767</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.4830458915396479</v>
+        <v>0.4216370213557839</v>
       </c>
       <c r="AE7" t="n">
         <v>2.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7888106377466155</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.664285714285714</v>
+        <v>1.645</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5689374713524272</v>
+        <v>0.5599851188498971</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.273030282830976</v>
+        <v>3.368151487751768</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.828782229912694</v>
+        <v>1.595131481867387</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3162277660168379</v>
+        <v>0.4216370213557839</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.755555555555556</v>
+        <v>12.18888888888889</v>
       </c>
       <c r="AP7" t="n">
-        <v>14.40553163072387</v>
+        <v>11.24414799784896</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.1</v>
@@ -1207,130 +1207,130 @@
         <v>0.75</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008609409654623389</v>
+        <v>0.00110672902856023</v>
       </c>
       <c r="D8" t="n">
-        <v>8.404925508105566e-05</v>
+        <v>0.0004243324791630727</v>
       </c>
       <c r="E8" t="n">
-        <v>177.4</v>
+        <v>173</v>
       </c>
       <c r="F8" t="n">
-        <v>12.38457822365291</v>
+        <v>5.517648452415616</v>
       </c>
       <c r="G8" t="n">
-        <v>831.1</v>
+        <v>813.6</v>
       </c>
       <c r="H8" t="n">
-        <v>68.88549274782834</v>
+        <v>109.1779383493855</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6784489795918367</v>
+        <v>0.6641632653061225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05623305530434966</v>
+        <v>0.08912484763215144</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004473001376071775</v>
+        <v>0.0004894596178746629</v>
       </c>
       <c r="L8" t="n">
-        <v>5.866685070117302e-05</v>
+        <v>9.558340687234466e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004136408278551613</v>
+        <v>0.000617269410685567</v>
       </c>
       <c r="N8" t="n">
-        <v>3.315358085601394e-05</v>
+        <v>0.0003409905483558259</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9244659348231664</v>
+        <v>0.8744896526593379</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08541119779970083</v>
+        <v>0.1496106418151049</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.135292424395093</v>
+        <v>1.07496769977314</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.135292424395093</v>
+        <v>1.07496769977314</v>
       </c>
       <c r="U8" t="n">
-        <v>7.7</v>
+        <v>11.4</v>
       </c>
       <c r="V8" t="n">
-        <v>6.498717822257968</v>
+        <v>7.515909052728677</v>
       </c>
       <c r="W8" t="n">
-        <v>39.7</v>
+        <v>38.2</v>
       </c>
       <c r="X8" t="n">
-        <v>3.400980250849256</v>
+        <v>5.711586664161039</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.73666666666667</v>
+        <v>22.15333333333333</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.19766383704675</v>
+        <v>5.808831080219025</v>
       </c>
       <c r="AA8" t="n">
-        <v>53.8</v>
+        <v>52.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.011090610836324</v>
+        <v>1.66332999331662</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4830458915396479</v>
+        <v>0.4216370213557839</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.8755950357709131</v>
+        <v>0.5163977794943222</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.625</v>
+        <v>1.283333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.5736632341128718</v>
+        <v>0.416110740246089</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.011090610836324</v>
+        <v>1.66332999331662</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.100504934614612</v>
+        <v>0.8498365855987975</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.3162277660168379</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.575</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
-        <v>5.06355441694205</v>
+        <v>3.559026084010438</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.5163977794943222</v>
+        <v>0.6992058987801011</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1341,46 +1341,46 @@
         <v>0.99</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008812526178988977</v>
+        <v>0.0009700776929239971</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001112321219078167</v>
+        <v>0.0001696420070467126</v>
       </c>
       <c r="E9" t="n">
-        <v>169.8</v>
+        <v>174.6</v>
       </c>
       <c r="F9" t="n">
-        <v>10.01998003990028</v>
+        <v>10.97674309113996</v>
       </c>
       <c r="G9" t="n">
-        <v>1090.4</v>
+        <v>1090.7</v>
       </c>
       <c r="H9" t="n">
-        <v>101.9457372004015</v>
+        <v>134.5891278422345</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8901224489795918</v>
+        <v>0.8903673469387755</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08322100995951144</v>
+        <v>0.1098686757895791</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000441974729573389</v>
+        <v>0.0004863531298549509</v>
       </c>
       <c r="L9" t="n">
-        <v>5.965893910829305e-05</v>
+        <v>8.054779941807651e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0004392778883255087</v>
+        <v>0.0004837245630690462</v>
       </c>
       <c r="N9" t="n">
-        <v>7.765280906026027e-05</v>
+        <v>0.0001215912815114703</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9886028893791541</v>
+        <v>0.9799224132669829</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01367919541842924</v>
+        <v>0.04915653144117214</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
@@ -1395,52 +1395,52 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.469817807045694</v>
+        <v>4.217687623436436</v>
       </c>
       <c r="W9" t="n">
-        <v>46.9</v>
+        <v>46.7</v>
       </c>
       <c r="X9" t="n">
-        <v>2.514402955419481</v>
+        <v>4.029061098237818</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4594682917363407</v>
+        <v>0.2581988897471611</v>
       </c>
       <c r="AA9" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.9189365834726815</v>
+        <v>0.5163977794943222</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9189365834726815</v>
+        <v>0.5163977794943222</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9189365834726815</v>
+        <v>0.5163977794943222</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.9189365834726815</v>
+        <v>0.5163977794943222</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9189365834726815</v>
+        <v>0.5163977794943222</v>
       </c>
       <c r="AK9" t="n">
         <v>1</v>
